--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 9 (19, 31, 22, 5, 21)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(19, 31, 22, 5, 21)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 9 (19, 31, 22, 5, 21)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(19, 31, 22, 5, 21)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9414198787031411</v>
+        <v>0.940517296307315</v>
       </c>
       <c r="E2">
-        <v>0.9414198787031411</v>
+        <v>0.940517296307315</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0005784570945493613</v>
+        <v>0.0005797833628382483</v>
       </c>
       <c r="E3">
-        <v>0.0005784570945493613</v>
+        <v>0.0005797833628382483</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0003334641228199763</v>
+        <v>0.000333796122877033</v>
       </c>
       <c r="E4">
-        <v>0.0003334641228199763</v>
+        <v>0.000333796122877033</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.000191426620582379</v>
+        <v>0.0001924375287687572</v>
       </c>
       <c r="E5">
-        <v>0.000191426620582379</v>
+        <v>0.0001924375287687572</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.977762139073846</v>
+        <v>0.9778595821558494</v>
       </c>
       <c r="E6">
-        <v>0.977762139073846</v>
+        <v>0.9778595821558494</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9997652321662668</v>
+        <v>0.8908511697334102</v>
       </c>
       <c r="E7">
-        <v>0.0002347678337332182</v>
+        <v>0.1091488302665898</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9997957513736225</v>
+        <v>2.84353646045298E-10</v>
       </c>
       <c r="E8">
-        <v>0.0002042486263774679</v>
+        <v>0.9999999997156463</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9997716133361761</v>
+        <v>0.999721673857334</v>
       </c>
       <c r="E9">
-        <v>0.0002283866638238541</v>
+        <v>0.0002783261426659855</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9997157220927517</v>
+        <v>5.130103266242854E-05</v>
       </c>
       <c r="E10">
-        <v>0.000284277907248276</v>
+        <v>0.9999486989673376</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9997537580179066</v>
+        <v>0.9999999999994413</v>
       </c>
       <c r="E11">
-        <v>0.0002462419820934425</v>
+        <v>5.586642259913788E-13</v>
       </c>
       <c r="F11">
-        <v>0.664561927318573</v>
+        <v>3.860798358917236</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9724996367576242</v>
+        <v>0.9726691503844511</v>
       </c>
       <c r="E12">
-        <v>0.9724996367576242</v>
+        <v>0.9726691503844511</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>6.906835415928248E-05</v>
+        <v>6.880621420588089E-05</v>
       </c>
       <c r="E13">
-        <v>6.906835415928248E-05</v>
+        <v>6.880621420588089E-05</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>4.666314575037226E-05</v>
+        <v>4.663311018686855E-05</v>
       </c>
       <c r="E14">
-        <v>4.666314575037226E-05</v>
+        <v>4.663311018686855E-05</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2.751398733350915E-05</v>
+        <v>2.745663993621075E-05</v>
       </c>
       <c r="E15">
-        <v>2.751398733350915E-05</v>
+        <v>2.745663993621075E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9929608190709165</v>
+        <v>0.9929485723683664</v>
       </c>
       <c r="E16">
-        <v>0.9929608190709165</v>
+        <v>0.9929485723683664</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9999582503926284</v>
+        <v>0.9539705605459436</v>
       </c>
       <c r="E17">
-        <v>4.174960737157729E-05</v>
+        <v>0.04602943945405635</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9999626698761834</v>
+        <v>2.588344381979599E-10</v>
       </c>
       <c r="E18">
-        <v>3.733012381657019E-05</v>
+        <v>0.9999999997411656</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.999958700525262</v>
+        <v>0.9999691546504501</v>
       </c>
       <c r="E19">
-        <v>4.12994747379658E-05</v>
+        <v>3.08453495498906E-05</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9999498687870625</v>
+        <v>1.080006980782465E-06</v>
       </c>
       <c r="E20">
-        <v>5.013121293750977E-05</v>
+        <v>0.9999989199930193</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9999548998857327</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>4.510011426728244E-05</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8550176620483398</v>
+        <v>4.441493034362793</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
